--- a/simple_ml/example/report2/experiments_data.xlsx
+++ b/simple_ml/example/report2/experiments_data.xlsx
@@ -16,24 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Ridge Regression</t>
+    <t>C</t>
   </si>
   <si>
-    <t>Linear Regression</t>
+    <t>C magtitude</t>
   </si>
   <si>
-    <t>lambda magtitude</t>
+    <t>validatin acc</t>
   </si>
   <si>
-    <t>training error</t>
-  </si>
-  <si>
-    <t>validatin error</t>
-  </si>
-  <si>
-    <t>weight magtitude</t>
+    <t>epoch</t>
   </si>
   <si>
     <t>LR</t>
@@ -45,6 +39,12 @@
     <t>MBGD</t>
   </si>
   <si>
+    <t>training error</t>
+  </si>
+  <si>
+    <t>validatin error</t>
+  </si>
+  <si>
     <t>test error</t>
   </si>
 </sst>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,6 +74,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -88,8 +95,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,108 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,39 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,21 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +469,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,145 +537,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1031,10 +1028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1049,7 +1046,7 @@
     <col min="13" max="13" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,187 +1056,147 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.001</v>
+      <c r="B2">
+        <v>-2</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>83.39</v>
+      </c>
+      <c r="C3">
+        <v>84.42</v>
+      </c>
+      <c r="D3">
+        <v>84.72</v>
+      </c>
+      <c r="E3">
+        <v>84.75</v>
+      </c>
+      <c r="F3">
+        <v>84.73</v>
+      </c>
+      <c r="G3">
+        <v>84.56</v>
+      </c>
+      <c r="H3">
+        <v>84.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>10.2348</v>
-      </c>
-      <c r="C3">
-        <v>10.2348</v>
-      </c>
-      <c r="D3">
-        <v>10.2349</v>
-      </c>
-      <c r="E3">
-        <v>10.2395</v>
-      </c>
-      <c r="F3">
-        <v>10.632</v>
-      </c>
-      <c r="G3">
-        <v>30.3698</v>
-      </c>
-      <c r="H3">
-        <v>181.3518</v>
-      </c>
-      <c r="I3">
-        <v>10.2349</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>138</v>
+      </c>
+      <c r="F4">
+        <v>173</v>
+      </c>
+      <c r="G4">
+        <v>147</v>
+      </c>
+      <c r="H4">
+        <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>17.0821</v>
-      </c>
-      <c r="C4">
-        <v>17.0828</v>
-      </c>
-      <c r="D4">
-        <v>17.0895</v>
-      </c>
-      <c r="E4">
-        <v>17.16</v>
-      </c>
-      <c r="F4">
-        <v>18.1963</v>
-      </c>
-      <c r="G4">
-        <v>43.9152</v>
-      </c>
-      <c r="H4">
-        <v>214.5509</v>
-      </c>
-      <c r="I4">
-        <v>17.0821</v>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.8256</v>
-      </c>
-      <c r="C5">
-        <v>0.8254</v>
-      </c>
-      <c r="D5">
-        <v>0.8241</v>
-      </c>
-      <c r="E5">
-        <v>0.8112</v>
-      </c>
-      <c r="F5">
-        <v>0.7171</v>
-      </c>
-      <c r="G5">
-        <v>0.4959</v>
-      </c>
-      <c r="H5">
-        <v>0.3271</v>
-      </c>
-      <c r="I5">
-        <v>0.8256</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>10.2348597065139</v>
+      </c>
+      <c r="C7">
+        <v>10.2348597065139</v>
+      </c>
+      <c r="D7">
+        <v>11.3722521550882</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>10.2348597065139</v>
+        <v>17.0820649731349</v>
       </c>
       <c r="C8">
-        <v>10.2348597065139</v>
+        <v>17.0820649804989</v>
       </c>
       <c r="D8">
-        <v>11.3722521550882</v>
+        <v>19.0368678771403</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>17.0820649731349</v>
+        <v>10.2010815721491</v>
       </c>
       <c r="C9">
-        <v>17.0820649804989</v>
+        <v>10.2010815768652</v>
       </c>
       <c r="D9">
-        <v>19.0368678771403</v>
+        <v>10.1469994171304</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10.2010815721491</v>
-      </c>
-      <c r="C10">
-        <v>10.2010815768652</v>
-      </c>
-      <c r="D10">
-        <v>10.1469994171304</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3"/>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
